--- a/data/raw/EGI/EGI-2021.xlsx
+++ b/data/raw/EGI/EGI-2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d135da842735aabe/Documentos/GitHub/e-gov-index/raw_data/2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d135da842735aabe/Documentos/GitHub/e-gov-index/data/raw/EGI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8308" documentId="13_ncr:1_{DA2DAC24-6B37-4FAD-B3D2-40D90F3F52C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0B576D3-56FA-44D8-8EF7-0C9F35909ECF}"/>
+  <xr:revisionPtr revIDLastSave="8329" documentId="13_ncr:1_{DA2DAC24-6B37-4FAD-B3D2-40D90F3F52C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE2018B1-2F60-491D-BCBA-4BD6654791D7}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B66F953-E5AF-4F8D-B634-188287D0A235}"/>
   </bookViews>
@@ -2786,7 +2786,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A347" sqref="A347"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/raw/EGI/EGI-2021.xlsx
+++ b/data/raw/EGI/EGI-2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d135da842735aabe/Documentos/GitHub/e-gov-index/data/raw/EGI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8329" documentId="13_ncr:1_{DA2DAC24-6B37-4FAD-B3D2-40D90F3F52C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE2018B1-2F60-491D-BCBA-4BD6654791D7}"/>
+  <xr:revisionPtr revIDLastSave="8331" documentId="13_ncr:1_{DA2DAC24-6B37-4FAD-B3D2-40D90F3F52C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4653EA47-D161-4D8A-AE4F-15BFC97D305D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B66F953-E5AF-4F8D-B634-188287D0A235}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2B66F953-E5AF-4F8D-B634-188287D0A235}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2785,8 +2785,8 @@
   <dimension ref="A1:AB348"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
